--- a/analysis/supplementary-materials/Table_S6.xlsx
+++ b/analysis/supplementary-materials/Table_S6.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aymeric.hermann/Documents/Github/polynesianoutliersvoyaging/analysis/supplementary-materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD9E7241-32F9-404F-9341-E322B9BE6F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F8166E-E938-4044-B3C4-71F54C0C3864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4840" yWindow="2560" windowWidth="28040" windowHeight="12180" xr2:uid="{8CADD4F0-211F-C640-978B-A9247843CE74}"/>
+    <workbookView xWindow="6140" yWindow="960" windowWidth="28040" windowHeight="17280" xr2:uid="{8CADD4F0-211F-C640-978B-A9247843CE74}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table S6" sheetId="1" r:id="rId1"/>
+    <sheet name="Table S7" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,66 +33,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
-  <si>
-    <t>Major elements</t>
-  </si>
-  <si>
-    <t>Trace elements</t>
-  </si>
-  <si>
-    <t>Isotopes (IAB)</t>
-  </si>
-  <si>
-    <t>Isotopes (OIB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cs, Rb, Ba, Th, </t>
-  </si>
-  <si>
-    <t>MgO ± 1.5 p.p.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ce, Pb, Nd, Sr, </t>
-  </si>
-  <si>
-    <t>Nb, Sm, Zr, Yb</t>
-  </si>
-  <si>
-    <t>± 50%</t>
-  </si>
-  <si>
-    <t>SiO2 ± 1.5 p.p.</t>
-  </si>
-  <si>
-    <t>143Nd/144Nd ± 0.1‰</t>
-  </si>
-  <si>
-    <t>87Sr/86Sr ± 0.1‰</t>
-  </si>
-  <si>
-    <t>Na2O ± 1.5 p.p.</t>
-  </si>
-  <si>
-    <t>206Pb/204Pb ± 0.5%</t>
-  </si>
-  <si>
-    <t>206Pb/204Pb ± 1%</t>
-  </si>
-  <si>
-    <t>K2O ± 1.5 p.p.</t>
-  </si>
-  <si>
-    <t>207Pb/204Pb ± 0.5%</t>
-  </si>
-  <si>
-    <t>207Pb/204Pb ± 1%</t>
-  </si>
-  <si>
-    <t>208Pb/204Pb ± 0.5%</t>
-  </si>
-  <si>
-    <t>208Pb/204Pb ± 1%</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
+  <si>
+    <t>Island</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Geochemical domain</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Emae</t>
+  </si>
+  <si>
+    <t>E-11-03</t>
+  </si>
+  <si>
+    <t>Island Arc</t>
+  </si>
+  <si>
+    <t>Rhyolite</t>
+  </si>
+  <si>
+    <t>E-11-06</t>
+  </si>
+  <si>
+    <t>Calc-alkaline basalt</t>
+  </si>
+  <si>
+    <t>E-11-07</t>
+  </si>
+  <si>
+    <t>E-11-08</t>
+  </si>
+  <si>
+    <t>Oceanic Island</t>
+  </si>
+  <si>
+    <t>Alkali basalt</t>
+  </si>
+  <si>
+    <t>E-11-10</t>
+  </si>
+  <si>
+    <t>E-11-11</t>
+  </si>
+  <si>
+    <t>E-11-13</t>
+  </si>
+  <si>
+    <t>E-11-16</t>
+  </si>
+  <si>
+    <t>E-11-18</t>
+  </si>
+  <si>
+    <t>E-11-19</t>
+  </si>
+  <si>
+    <t>Taumako</t>
+  </si>
+  <si>
+    <t>T-12-06</t>
+  </si>
+  <si>
+    <t>T-12-07</t>
+  </si>
+  <si>
+    <t>T-12-08</t>
+  </si>
+  <si>
+    <t>Trachybasalt</t>
+  </si>
+  <si>
+    <t>T-12-09</t>
+  </si>
+  <si>
+    <t>T-12-10</t>
+  </si>
+  <si>
+    <t>Kapingamarangi</t>
+  </si>
+  <si>
+    <t>K-12-24</t>
+  </si>
+  <si>
+    <t>Picrite</t>
+  </si>
+  <si>
+    <t>K-12-25</t>
+  </si>
+  <si>
+    <t>Picrobasalt</t>
+  </si>
+  <si>
+    <t>K-12-26</t>
+  </si>
+  <si>
+    <t>Basanite</t>
+  </si>
+  <si>
+    <t>K-12-28</t>
+  </si>
+  <si>
+    <t>Low-K basaltic andesite</t>
+  </si>
+  <si>
+    <t>K-12-29</t>
+  </si>
+  <si>
+    <t>High-K calc-alkaline basalt</t>
   </si>
 </sst>
 </file>
@@ -185,12 +242,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -198,6 +249,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -514,23 +571,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAF42E7-F512-F94F-8CCF-23BE2C4E9229}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -538,78 +599,356 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="6">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="6">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="7">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
